--- a/Data.xlsx
+++ b/Data.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -386,9 +386,6 @@
         <v>birthday</v>
       </c>
       <c r="B1" t="str">
-        <v>start_date</v>
-      </c>
-      <c r="C1" t="str">
         <v>preferred_name</v>
       </c>
     </row>
@@ -396,10 +393,7 @@
       <c r="A2" s="1">
         <v>44271.499398148146</v>
       </c>
-      <c r="B2" s="1">
-        <v>44271.499398148146</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B2" t="str">
         <v>Accurate Networks</v>
       </c>
     </row>
@@ -407,10 +401,7 @@
       <c r="A3" s="1">
         <v>36599.499398148146</v>
       </c>
-      <c r="B3" s="1">
-        <v>44277.499398148146</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="B3" t="str">
         <v>Alex Kolomoyets</v>
       </c>
     </row>
@@ -418,10 +409,7 @@
       <c r="A4" s="1">
         <v>33284.499398148146</v>
       </c>
-      <c r="B4" s="1">
-        <v>41365.499398148146</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="B4" t="str">
         <v>Andre Proulx</v>
       </c>
     </row>
@@ -429,10 +417,7 @@
       <c r="A5" s="1">
         <v>31832.49939814815</v>
       </c>
-      <c r="B5" s="1">
-        <v>41590.499398148146</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="B5" t="str">
         <v>Andrew Marshall</v>
       </c>
     </row>
@@ -440,720 +425,501 @@
       <c r="A6" s="1">
         <v>36729.499398148146</v>
       </c>
-      <c r="B6" s="1">
-        <v>43636.499398148146</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="B6" t="str">
         <v>Austin Ward</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>21453.49939814815</v>
-      </c>
-      <c r="B7" s="1">
-        <v>38222.499398148146</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Barb Axani</v>
+        <v>31781.49939814815</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Benjamin Luu</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>31781.49939814815</v>
-      </c>
-      <c r="B8" s="1">
-        <v>40064.499398148146</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Benjamin Luu</v>
+        <v>34225.499398148146</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Brandon Burnison</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>34225.499398148146</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44958.499398148146</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Brandon Burnison</v>
+        <v>32322.49939814815</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Brent LHirondelle</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>32322.49939814815</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44767.499398148146</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Brent LHirondelle</v>
+        <v>28144.49939814815</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Christopher Ayling</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>28144.49939814815</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44746.499398148146</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Christopher Ayling</v>
+        <v>32178.49939814815</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Danial Gholinezhad Dazmiri</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>33546.499398148146</v>
-      </c>
-      <c r="B12" s="1">
-        <v>41904.499398148146</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Cory Hearl</v>
+        <v>38336.499398148146</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Daniel Brue</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>32178.49939814815</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44957.499398148146</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Danial Gholinezhad Dazmiri</v>
+        <v>34869.499398148146</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Daniel Richardson</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>38336.499398148146</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45048.499398148146</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Daniel Brue</v>
+        <v>35454.499398148146</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Dave Doerksen</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>34869.499398148146</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44452.499398148146</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Daniel Richardson</v>
+        <v>36033.499398148146</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Dean Webb</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>35454.499398148146</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44054.499398148146</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Dave Doerksen</v>
+        <v>25350.49939814815</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Don Petruka</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>36033.499398148146</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43018.499398148146</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Dean Webb</v>
+        <v>30033.49939814815</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Douglas Simpson</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>25350.49939814815</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45061.499398148146</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Don Petruka</v>
+        <v>29594.49939814815</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Ernesto Esguerra</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>30033.49939814815</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44411.499398148146</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Douglas Simpson</v>
+        <v>36982.499398148146</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Evan Hergott</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>31822.49939814815</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44775.499398148146</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Dustin Meunier</v>
+        <v>31589.49939814815</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Garrett Axani</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>29594.49939814815</v>
-      </c>
-      <c r="B21" s="1">
-        <v>40023.499398148146</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Ernesto Esguerra</v>
+        <v>21528.49939814815</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Gene Axani</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>36982.499398148146</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44930.499398148146</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Evan Hergott</v>
+        <v>31427.49939814815</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Grant Turner</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>31589.49939814815</v>
-      </c>
-      <c r="B23" s="1">
-        <v>39569.499398148146</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Garrett Axani</v>
+        <v>34897.499398148146</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Haiden Clorey</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>21528.49939814815</v>
-      </c>
-      <c r="B24" s="1">
-        <v>33807.499398148146</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Gene Axani</v>
+        <v>34758.499398148146</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Hasan AlGhanim</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>31427.49939814815</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43558.499398148146</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Grant Turner</v>
+        <v>25336.49939814815</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Ian Klaver</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>34897.499398148146</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44959.499398148146</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Haiden Clorey</v>
+        <v>30140.49939814815</v>
+      </c>
+      <c r="B26" t="str">
+        <v>James Skog</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>34758.499398148146</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44523.499398148146</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Hasan AlGhanim</v>
+        <v>35903.499398148146</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Jason Mirasty</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>25336.49939814815</v>
-      </c>
-      <c r="B28" s="1">
-        <v>38657.499398148146</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Ian Klaver</v>
+        <v>34348.499398148146</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Jeff Fisher</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>30140.49939814815</v>
-      </c>
-      <c r="B29" s="1">
-        <v>40323.499398148146</v>
-      </c>
-      <c r="C29" t="str">
-        <v>James Skog</v>
+        <v>28739.49939814815</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Jeff van den Heuvel</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>35903.499398148146</v>
-      </c>
-      <c r="B30" s="1">
-        <v>42976.499398148146</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Jason Mirasty</v>
+        <v>33039.499398148146</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Jeffery Dawana</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>34348.499398148146</v>
-      </c>
-      <c r="B31" s="1">
-        <v>42787.499398148146</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Jeff Fisher</v>
+        <v>31470.49939814815</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Jeremy Mangaard</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>28739.49939814815</v>
-      </c>
-      <c r="B32" s="1">
-        <v>39727.499398148146</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Jeff van den Heuvel</v>
+        <v>36812.499398148146</v>
+      </c>
+      <c r="B32" t="str">
+        <v>John Hisarza</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>33039.499398148146</v>
-      </c>
-      <c r="B33" s="1">
-        <v>44767.499398148146</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Jeffery Dawana</v>
+        <v>29281.49939814815</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Jonathan Rice</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>31470.49939814815</v>
-      </c>
-      <c r="B34" s="1">
-        <v>42989.499398148146</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Jeremy Mangaard</v>
+        <v>33213.499398148146</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Josh Raugust</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>36812.499398148146</v>
-      </c>
-      <c r="B35" s="1">
-        <v>44790.499398148146</v>
-      </c>
-      <c r="C35" t="str">
-        <v>John Hisarza</v>
+        <v>32429.49939814815</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Justin Shuler</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>29281.49939814815</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45012.499398148146</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Jonathan Rice</v>
+        <v>34890.499398148146</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Kadi Stanley</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>33213.499398148146</v>
-      </c>
-      <c r="B37" s="1">
-        <v>44952.499398148146</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Josh Raugust</v>
+        <v>38686.499398148146</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Keagan Puddester</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>32429.49939814815</v>
-      </c>
-      <c r="B38" s="1">
-        <v>44949.499398148146</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Justin Shuler</v>
+        <v>35340.499398148146</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Kody Eastman</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>34890.499398148146</v>
-      </c>
-      <c r="B39" s="1">
-        <v>44981.499398148146</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Kadi Stanley</v>
+        <v>33146.499398148146</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Kris Beaulieu</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>38686.499398148146</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45026.499398148146</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Keagan Puddester</v>
+        <v>37189.499398148146</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Kyla Lim</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>35340.499398148146</v>
-      </c>
-      <c r="B41" s="1">
-        <v>44886.499398148146</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Kody Eastman</v>
+        <v>36197.499398148146</v>
+      </c>
+      <c r="B41" t="str">
+        <v>La'Tiffany Cuffe</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>33146.499398148146</v>
-      </c>
-      <c r="B42" s="1">
-        <v>42971.499398148146</v>
-      </c>
-      <c r="C42" t="str">
-        <v>Kris Beaulieu</v>
+        <v>32776.499398148146</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Laili Abolghasemi</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>37189.499398148146</v>
-      </c>
-      <c r="B43" s="1">
-        <v>45047.499398148146</v>
-      </c>
-      <c r="C43" t="str">
-        <v>Kyla Lim</v>
+        <v>23285.49939814815</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Lawrence Dehod</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>36197.499398148146</v>
-      </c>
-      <c r="B44" s="1">
-        <v>44953.499398148146</v>
-      </c>
-      <c r="C44" t="str">
-        <v>La'Tiffany Cuffe</v>
+        <v>36725.499398148146</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Lindon Sorensen</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>32776.499398148146</v>
-      </c>
-      <c r="B45" s="1">
-        <v>43633.499398148146</v>
-      </c>
-      <c r="C45" t="str">
-        <v>Laili Abolghasemi</v>
+        <v>36745.499398148146</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Mahed Riaz</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>23285.49939814815</v>
-      </c>
-      <c r="B46" s="1">
-        <v>44466.499398148146</v>
-      </c>
-      <c r="C46" t="str">
-        <v>Lawrence Dehod</v>
+        <v>37460.499398148146</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Mason Solomon</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>36725.499398148146</v>
-      </c>
-      <c r="B47" s="1">
-        <v>44369.499398148146</v>
-      </c>
-      <c r="C47" t="str">
-        <v>Lindon Sorensen</v>
+        <v>32749.49939814815</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Matthew Letourneau</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>36745.499398148146</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45047.499398148146</v>
-      </c>
-      <c r="C48" t="str">
-        <v>Mahed Riaz</v>
+        <v>27775.49939814815</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Michael Liu</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>37460.499398148146</v>
-      </c>
-      <c r="B49" s="1">
-        <v>44411.499398148146</v>
-      </c>
-      <c r="C49" t="str">
-        <v>Mason Solomon</v>
+        <v>35170.499398148146</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Micheal Martinez</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>32749.49939814815</v>
-      </c>
-      <c r="B50" s="1">
-        <v>44776.499398148146</v>
-      </c>
-      <c r="C50" t="str">
-        <v>Matthew Letourneau</v>
+        <v>32236.49939814815</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Mike Banack</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>27775.49939814815</v>
-      </c>
-      <c r="B51" s="1">
-        <v>43983.499398148146</v>
-      </c>
-      <c r="C51" t="str">
-        <v>Michael Liu</v>
+        <v>32402.49939814815</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Morgan Resler</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>35170.499398148146</v>
-      </c>
-      <c r="B52" s="1">
-        <v>45040.499398148146</v>
-      </c>
-      <c r="C52" t="str">
-        <v>Micheal Martinez</v>
+        <v>35465.499398148146</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Nicholas Brown</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>32236.49939814815</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43556.499398148146</v>
-      </c>
-      <c r="C53" t="str">
-        <v>Mike Banack</v>
+        <v>30694.49939814815</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>32402.49939814815</v>
-      </c>
-      <c r="B54" s="1">
-        <v>41102.499398148146</v>
-      </c>
-      <c r="C54" t="str">
-        <v>Morgan Resler</v>
+        <v>36272.499398148146</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Rana El Sadig</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>35465.499398148146</v>
-      </c>
-      <c r="B55" s="1">
-        <v>44942.499398148146</v>
-      </c>
-      <c r="C55" t="str">
-        <v>Nicholas Brown</v>
+        <v>35075.499398148146</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Rebecca Charron</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>30694.49939814815</v>
-      </c>
-      <c r="B56" s="1">
-        <v>44788.499398148146</v>
-      </c>
-      <c r="C56" t="str">
-        <v>Paul Gerhardt</v>
+        <v>22177.49939814815</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Richard Laszchuk</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>36272.499398148146</v>
-      </c>
-      <c r="B57" s="1">
-        <v>44816.499398148146</v>
-      </c>
-      <c r="C57" t="str">
-        <v>Rana El Sadig</v>
+        <v>29037.49939814815</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Robert Cyre</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>35075.499398148146</v>
-      </c>
-      <c r="B58" s="1">
-        <v>44775.499398148146</v>
-      </c>
-      <c r="C58" t="str">
-        <v>Rebecca Charron</v>
+        <v>29723.49939814815</v>
+      </c>
+      <c r="B58" t="str">
+        <v xml:space="preserve">Sean  O Sullivan </v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>22177.49939814815</v>
-      </c>
-      <c r="B59" s="1">
-        <v>44683.499398148146</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Richard Laszchuk</v>
+        <v>30593.49939814815</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Sue Skog</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>29037.49939814815</v>
-      </c>
-      <c r="B60" s="1">
-        <v>44396.499398148146</v>
-      </c>
-      <c r="C60" t="str">
-        <v>Robert Cyre</v>
+        <v>35530.499398148146</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Tanner Hadley</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>29723.49939814815</v>
-      </c>
-      <c r="B61" s="1">
-        <v>44936.499398148146</v>
-      </c>
-      <c r="C61" t="str">
-        <v xml:space="preserve">Sean  O Sullivan </v>
+        <v>44711.499398148146</v>
+      </c>
+      <c r="B61" t="str">
+        <v>TEST Hasan TEST Hasan</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>30593.49939814815</v>
-      </c>
-      <c r="B62" s="1">
-        <v>44760.499398148146</v>
-      </c>
-      <c r="C62" t="str">
-        <v>Sue Skog</v>
+        <v>27739.49939814815</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Trevor Collicutt</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>35530.499398148146</v>
-      </c>
-      <c r="B63" s="1">
-        <v>44896.499398148146</v>
-      </c>
-      <c r="C63" t="str">
-        <v>Tanner Hadley</v>
+        <v>25397.49939814815</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Wade Thompson</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>44573.499398148146</v>
-      </c>
-      <c r="B64" s="1">
-        <v>44562.499398148146</v>
-      </c>
-      <c r="C64" t="str">
-        <v>TEST Hasan TEST Hasan</v>
+        <v>24458.49939814815</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Warren Dmyterko</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>27739.49939814815</v>
-      </c>
-      <c r="B65" s="1">
-        <v>44944.499398148146</v>
-      </c>
-      <c r="C65" t="str">
-        <v>Trevor Collicutt</v>
+        <v>34636.499398148146</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Wyatt Eastman</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>25397.49939814815</v>
-      </c>
-      <c r="B66" s="1">
-        <v>43970.499398148146</v>
-      </c>
-      <c r="C66" t="str">
-        <v>Wade Thompson</v>
+        <v>37844.499398148146</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Xander Tran</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>24458.49939814815</v>
-      </c>
-      <c r="B67" s="1">
-        <v>44342.499398148146</v>
-      </c>
-      <c r="C67" t="str">
-        <v>Warren Dmyterko</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>34636.499398148146</v>
-      </c>
-      <c r="B68" s="1">
-        <v>44444.499398148146</v>
-      </c>
-      <c r="C68" t="str">
-        <v>Wyatt Eastman</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>37844.499398148146</v>
-      </c>
-      <c r="B69" s="1">
-        <v>44642.499398148146</v>
-      </c>
-      <c r="C69" t="str">
-        <v>Xander Tran</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1">
         <v>31791.49939814815</v>
       </c>
-      <c r="B70" s="1">
-        <v>44707.499398148146</v>
-      </c>
-      <c r="C70" t="str">
+      <c r="B67" t="str">
         <v>Zach Billington</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B67"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -376,550 +376,1878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>birthday</v>
+        <v>po_name</v>
       </c>
       <c r="B1" t="str">
-        <v>preferred_name</v>
+        <v>supplier_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>job_number</v>
+      </c>
+      <c r="D1" t="str">
+        <v>unit_number</v>
+      </c>
+      <c r="E1" t="str">
+        <v>sum_extended_cost</v>
+      </c>
+      <c r="F1" t="str">
+        <v>sum_quantity</v>
+      </c>
+      <c r="G1" t="str">
+        <v>status</v>
+      </c>
+      <c r="H1" t="str">
+        <v>created_on</v>
+      </c>
+      <c r="I1" t="str">
+        <v>created_by_name</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>44271.499398148146</v>
+      <c r="A2">
+        <v>21610</v>
       </c>
       <c r="B2" t="str">
-        <v>Accurate Networks</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>212.82</v>
+      </c>
+      <c r="F2" t="str">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45106.999398148146</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>36599.499398148146</v>
+      <c r="A3">
+        <v>21609</v>
       </c>
       <c r="B3" t="str">
-        <v>Alex Kolomoyets</v>
+        <v>Wiseworth Canada Industries</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>290.4</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45106.999398148146</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>33284.499398148146</v>
+      <c r="A4">
+        <v>21606</v>
       </c>
       <c r="B4" t="str">
-        <v>Andre Proulx</v>
+        <v>New Line Hose &amp; Fittings</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>87.4100000000000004</v>
+      </c>
+      <c r="F4" t="str">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45105.999398148146</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>31832.49939814815</v>
+      <c r="A5">
+        <v>21605</v>
       </c>
       <c r="B5" t="str">
-        <v>Andrew Marshall</v>
+        <v>Price Steel Ltd</v>
+      </c>
+      <c r="C5" t="str">
+        <v>rolling stock</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>723.6</v>
+      </c>
+      <c r="F5" t="str">
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45105.999398148146</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Garrett Axani</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>36729.499398148146</v>
+      <c r="A6">
+        <v>21601</v>
       </c>
       <c r="B6" t="str">
-        <v>Austin Ward</v>
+        <v>Uline</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>96</v>
+      </c>
+      <c r="F6" t="str">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45105.999398148146</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>31781.49939814815</v>
+      <c r="A7">
+        <v>21600</v>
       </c>
       <c r="B7" t="str">
-        <v>Benjamin Luu</v>
+        <v>Webb Corporation</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>451</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45105.999398148146</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>34225.499398148146</v>
+      <c r="A8">
+        <v>21595</v>
       </c>
       <c r="B8" t="str">
-        <v>Brandon Burnison</v>
+        <v>Calmont Equipment Ltd.</v>
+      </c>
+      <c r="C8" t="str">
+        <v>7597 - STOCK</v>
+      </c>
+      <c r="D8" t="str">
+        <v>S014 Bobcat T740  Skid Steer</v>
+      </c>
+      <c r="E8" t="str">
+        <v>107.82</v>
+      </c>
+      <c r="F8" t="str">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45105.999398148146</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Donald  Petruka</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>32322.49939814815</v>
+      <c r="A9">
+        <v>21587</v>
       </c>
       <c r="B9" t="str">
-        <v>Brent LHirondelle</v>
+        <v>Gregg Distributors</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v>145.34</v>
+      </c>
+      <c r="F9" t="str">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45104.999398148146</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>28144.49939814815</v>
+      <c r="A10">
+        <v>21586</v>
       </c>
       <c r="B10" t="str">
-        <v>Christopher Ayling</v>
+        <v>Uline</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>3870</v>
+      </c>
+      <c r="F10" t="str">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45104.999398148146</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>32178.49939814815</v>
+      <c r="A11">
+        <v>21585</v>
       </c>
       <c r="B11" t="str">
-        <v>Danial Gholinezhad Dazmiri</v>
+        <v>Inland Industrial Supply Ltd.</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>128.18199999999999</v>
+      </c>
+      <c r="F11" t="str">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45104.999398148146</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>38336.499398148146</v>
+      <c r="A12">
+        <v>21574</v>
       </c>
       <c r="B12" t="str">
-        <v>Daniel Brue</v>
+        <v>Calmont Equipment Ltd.</v>
+      </c>
+      <c r="C12" t="str">
+        <v>stock</v>
+      </c>
+      <c r="D12" t="str">
+        <v>S014 Bobcat T740  Skid Steer</v>
+      </c>
+      <c r="E12" t="str">
+        <v>111.69</v>
+      </c>
+      <c r="F12" t="str">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45103.999398148146</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Donald  Petruka</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>34869.499398148146</v>
+      <c r="A13">
+        <v>21566</v>
       </c>
       <c r="B13" t="str">
-        <v>Daniel Richardson</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v>258.33</v>
+      </c>
+      <c r="F13" t="str">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45103.999398148146</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>35454.499398148146</v>
+      <c r="A14">
+        <v>21563</v>
       </c>
       <c r="B14" t="str">
-        <v>Dave Doerksen</v>
+        <v>Gregg Distributors</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v>29.0419999999999996</v>
+      </c>
+      <c r="F14" t="str">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45102.999398148146</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>36033.499398148146</v>
+      <c r="A15">
+        <v>21560</v>
       </c>
       <c r="B15" t="str">
-        <v>Dean Webb</v>
+        <v>Multicam Canada Inc.</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v>1678.11</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45102.999398148146</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>25350.49939814815</v>
+      <c r="A16">
+        <v>21557</v>
       </c>
       <c r="B16" t="str">
-        <v>Don Petruka</v>
+        <v>United Tool Supply Ltd</v>
+      </c>
+      <c r="C16" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v>1615</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45102.999398148146</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>30033.49939814815</v>
+      <c r="A17">
+        <v>21553</v>
       </c>
       <c r="B17" t="str">
-        <v>Douglas Simpson</v>
+        <v>Inland Industrial Supply Ltd.</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v>507.396999999999982</v>
+      </c>
+      <c r="F17" t="str">
+        <v>116</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45102.999398148146</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>29594.49939814815</v>
+      <c r="A18">
+        <v>21561</v>
       </c>
       <c r="B18" t="str">
-        <v>Ernesto Esguerra</v>
+        <v>21 Zeta</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v>814.879999999999995</v>
+      </c>
+      <c r="F18" t="str">
+        <v>59.5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45102.999398148146</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>36982.499398148146</v>
+      <c r="A19">
+        <v>21562</v>
       </c>
       <c r="B19" t="str">
-        <v>Evan Hergott</v>
+        <v>21 Zeta</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v>1194.879999999999995</v>
+      </c>
+      <c r="F19" t="str">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>45102.999398148146</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>31589.49939814815</v>
+      <c r="A20">
+        <v>21550</v>
       </c>
       <c r="B20" t="str">
+        <v>Gregg Distributors</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v>16.35</v>
+      </c>
+      <c r="F20" t="str">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45100.999398148146</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Paul Gerhardt</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v>8114.57</v>
+      </c>
+      <c r="F21" t="str">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45099.999398148146</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Oleksiy Kolomoyets</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21549</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v>8114.57</v>
+      </c>
+      <c r="F22" t="str">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>45099.999398148146</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Paul Gerhardt</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21527</v>
+      </c>
+      <c r="B23" t="str">
+        <v>M&amp;D/Varsteel/Christianson</v>
+      </c>
+      <c r="C23" t="str">
+        <v>rolling stock</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v>47000.75</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5246.8</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45098.999398148146</v>
+      </c>
+      <c r="I23" t="str">
         <v>Garrett Axani</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>21528.49939814815</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Gene Axani</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>31427.49939814815</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Grant Turner</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>34897.499398148146</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Haiden Clorey</v>
-      </c>
-    </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>34758.499398148146</v>
+      <c r="A24">
+        <v>21517</v>
       </c>
       <c r="B24" t="str">
-        <v>Hasan AlGhanim</v>
+        <v>CANSTUD Welding &amp; Supply</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v>696</v>
+      </c>
+      <c r="F24" t="str">
+        <v>300</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>45097.999398148146</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>25336.49939814815</v>
+      <c r="A25">
+        <v>21513</v>
       </c>
       <c r="B25" t="str">
-        <v>Ian Klaver</v>
+        <v>Inland Industrial Supply Ltd.</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v>701.387</v>
+      </c>
+      <c r="F25" t="str">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>45096.999398148146</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>30140.49939814815</v>
+      <c r="A26">
+        <v>21509</v>
       </c>
       <c r="B26" t="str">
-        <v>James Skog</v>
+        <v>Russel Metals Inc.</v>
+      </c>
+      <c r="C26" t="str">
+        <v>rolling stock</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v>48980.400000000003</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>45096.999398148146</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Garrett Axani</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>35903.499398148146</v>
+      <c r="A27">
+        <v>21508</v>
       </c>
       <c r="B27" t="str">
-        <v>Jason Mirasty</v>
+        <v>M&amp;D/Varsteel/Christianson</v>
+      </c>
+      <c r="C27" t="str">
+        <v>rolling stock</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v>47911.440000000002</v>
+      </c>
+      <c r="F27" t="str">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>45096.999398148146</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Garrett Axani</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>34348.499398148146</v>
+      <c r="A28">
+        <v>21502</v>
       </c>
       <c r="B28" t="str">
-        <v>Jeff Fisher</v>
+        <v>Chris Page &amp; Associates Ltd</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v>289.92</v>
+      </c>
+      <c r="F28" t="str">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>45096.999398148146</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>28739.49939814815</v>
+      <c r="A29">
+        <v>21501</v>
       </c>
       <c r="B29" t="str">
-        <v>Jeff van den Heuvel</v>
+        <v>21 Zeta</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v>1050.59</v>
+      </c>
+      <c r="F29" t="str">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>45095.999398148146</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>33039.499398148146</v>
+      <c r="A30">
+        <v>21500</v>
       </c>
       <c r="B30" t="str">
-        <v>Jeffery Dawana</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v>5256.87</v>
+      </c>
+      <c r="F30" t="str">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>45095.999398148146</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>31470.49939814815</v>
+      <c r="A31">
+        <v>21499</v>
       </c>
       <c r="B31" t="str">
-        <v>Jeremy Mangaard</v>
+        <v>Gregg Distributors</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v>139.439999999999995</v>
+      </c>
+      <c r="F31" t="str">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>45095.999398148146</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>36812.499398148146</v>
-      </c>
       <c r="B32" t="str">
-        <v>John Hisarza</v>
+        <v>Gregg Distributors</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45095.999398148146</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>29281.49939814815</v>
+      <c r="A33">
+        <v>21493</v>
       </c>
       <c r="B33" t="str">
-        <v>Jonathan Rice</v>
+        <v>Wiseworth Canada Industries</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v>339</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>45095.999398148146</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>33213.499398148146</v>
+      <c r="A34">
+        <v>21478</v>
       </c>
       <c r="B34" t="str">
-        <v>Josh Raugust</v>
+        <v>Dandy Oil Products Ltd</v>
+      </c>
+      <c r="C34" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v>3409.5199999999996</v>
+      </c>
+      <c r="F34" t="str">
+        <v>1564</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>45091.999398148146</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Donald  Petruka</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
-        <v>32429.49939814815</v>
+      <c r="A35">
+        <v>21476</v>
       </c>
       <c r="B35" t="str">
-        <v>Justin Shuler</v>
+        <v>Fountain Tire</v>
+      </c>
+      <c r="C35" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="D35" t="str">
+        <v>T014 Manac 53' Tridem Stepdeck</v>
+      </c>
+      <c r="E35" t="str">
+        <v>61.66</v>
+      </c>
+      <c r="F35" t="str">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>45091.999398148146</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Donald  Petruka</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>34890.499398148146</v>
+      <c r="A36">
+        <v>21465</v>
       </c>
       <c r="B36" t="str">
-        <v>Kadi Stanley</v>
+        <v>Inland Industrial Supply Ltd.</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v>104.39999999999999</v>
+      </c>
+      <c r="F36" t="str">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>45091.999398148146</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>38686.499398148146</v>
+      <c r="A37">
+        <v>21464</v>
       </c>
       <c r="B37" t="str">
-        <v>Keagan Puddester</v>
+        <v>CANSTUD Welding &amp; Supply</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v>434.83</v>
+      </c>
+      <c r="F37" t="str">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>45091.999398148146</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
-        <v>35340.499398148146</v>
+      <c r="A38">
+        <v>21460</v>
       </c>
       <c r="B38" t="str">
-        <v>Kody Eastman</v>
+        <v>Gregg Distributors</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v>46.64</v>
+      </c>
+      <c r="F38" t="str">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45090.999398148146</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
-        <v>33146.499398148146</v>
+      <c r="A39">
+        <v>21458</v>
       </c>
       <c r="B39" t="str">
-        <v>Kris Beaulieu</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>460.83</v>
+      </c>
+      <c r="F39" t="str">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45090.999398148146</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>37189.499398148146</v>
+      <c r="A40">
+        <v>21442</v>
       </c>
       <c r="B40" t="str">
-        <v>Kyla Lim</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v>459.12</v>
+      </c>
+      <c r="F40" t="str">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>45089.999398148146</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>36197.499398148146</v>
-      </c>
       <c r="B41" t="str">
-        <v>La'Tiffany Cuffe</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>45089.999398148146</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>32776.499398148146</v>
+      <c r="A42">
+        <v>21441</v>
       </c>
       <c r="B42" t="str">
-        <v>Laili Abolghasemi</v>
+        <v>Inland Industrial Supply Ltd.</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v>369.325999999999994</v>
+      </c>
+      <c r="F42" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>45089.999398148146</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>23285.49939814815</v>
+      <c r="A43">
+        <v>21434</v>
       </c>
       <c r="B43" t="str">
-        <v>Lawrence Dehod</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v>1379.75</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>45088.999398148146</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>36725.499398148146</v>
+      <c r="A44">
+        <v>21430</v>
       </c>
       <c r="B44" t="str">
-        <v>Lindon Sorensen</v>
+        <v>CBTech Automation Solutions</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v>1182.21</v>
+      </c>
+      <c r="F44" t="str">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>45088.999398148146</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>36745.499398148146</v>
+      <c r="A45">
+        <v>21424</v>
       </c>
       <c r="B45" t="str">
-        <v>Mahed Riaz</v>
+        <v>Edmonton Fasteners</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v>15</v>
+      </c>
+      <c r="F45" t="str">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>45085.999398148146</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>37460.499398148146</v>
+      <c r="A46">
+        <v>21420</v>
       </c>
       <c r="B46" t="str">
-        <v>Mason Solomon</v>
+        <v>Edmonton Fasteners &amp; Tools Ltd</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Rolling Stock</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v>2291.33</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1880</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>45085.999398148146</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>32749.49939814815</v>
+      <c r="A47">
+        <v>21417</v>
       </c>
       <c r="B47" t="str">
-        <v>Matthew Letourneau</v>
+        <v>Gregg Distributors</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v>126.76</v>
+      </c>
+      <c r="F47" t="str">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45085.999398148146</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>27775.49939814815</v>
+      <c r="A48">
+        <v>21411</v>
       </c>
       <c r="B48" t="str">
-        <v>Michael Liu</v>
+        <v>Concept Measurement Inc.</v>
+      </c>
+      <c r="C48" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v>2330.00</v>
+      </c>
+      <c r="F48" t="str">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>45085.999398148146</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Donald  Petruka</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>35170.499398148146</v>
+      <c r="A49">
+        <v>21408</v>
       </c>
       <c r="B49" t="str">
-        <v>Micheal Martinez</v>
+        <v>CANSTUD Welding &amp; Supply</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v>109</v>
+      </c>
+      <c r="F49" t="str">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>45084.999398148146</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>32236.49939814815</v>
+      <c r="A50">
+        <v>21407</v>
       </c>
       <c r="B50" t="str">
-        <v>Mike Banack</v>
+        <v>Wiseworth Canada Industries</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v>354</v>
+      </c>
+      <c r="F50" t="str">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50" s="1">
+        <v>45084.999398148146</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>32402.49939814815</v>
+      <c r="A51">
+        <v>21403</v>
       </c>
       <c r="B51" t="str">
-        <v>Morgan Resler</v>
+        <v>Samuel, Son &amp; Co., Ltd.</v>
+      </c>
+      <c r="C51" t="str">
+        <v>rolling stock</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v>45126.429998</v>
+      </c>
+      <c r="F51" t="str">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>45084.999398148146</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Garrett Axani</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>35465.499398148146</v>
+      <c r="A52">
+        <v>21397</v>
       </c>
       <c r="B52" t="str">
-        <v>Nicholas Brown</v>
+        <v>One Time Supplier</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v>167.3</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>45083.999398148146</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>30694.49939814815</v>
+      <c r="A53">
+        <v>21386</v>
       </c>
       <c r="B53" t="str">
+        <v>One Time Supplier</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v>448.5</v>
+      </c>
+      <c r="F53" t="str">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>45082.999398148146</v>
+      </c>
+      <c r="I53" t="str">
         <v>Paul Gerhardt</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>36272.499398148146</v>
+      <c r="A54">
+        <v>21385</v>
       </c>
       <c r="B54" t="str">
-        <v>Rana El Sadig</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C54" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v>323.19</v>
+      </c>
+      <c r="F54" t="str">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>45082.999398148146</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <v>35075.499398148146</v>
+      <c r="A55">
+        <v>21372</v>
       </c>
       <c r="B55" t="str">
-        <v>Rebecca Charron</v>
+        <v>Inland Industrial Supply Ltd.</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v>1382.521999999999990</v>
+      </c>
+      <c r="F55" t="str">
+        <v>237</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>45081.999398148146</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Oleksiy Kolomoyets</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>22177.49939814815</v>
+      <c r="A56">
+        <v>21367</v>
       </c>
       <c r="B56" t="str">
-        <v>Richard Laszchuk</v>
+        <v>United Tool Supply Ltd</v>
+      </c>
+      <c r="C56" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v>1725.5</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>45081.999398148146</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <v>29037.49939814815</v>
+      <c r="A57">
+        <v>21368</v>
       </c>
       <c r="B57" t="str">
-        <v>Robert Cyre</v>
+        <v>Price Steel Ltd</v>
+      </c>
+      <c r="C57" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v>2820</v>
+      </c>
+      <c r="F57" t="str">
+        <v>1200</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>45081.999398148146</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <v>29723.49939814815</v>
+      <c r="A58">
+        <v>21365</v>
       </c>
       <c r="B58" t="str">
-        <v xml:space="preserve">Sean  O Sullivan </v>
+        <v>Gregg Distributors</v>
+      </c>
+      <c r="C58" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v>23.32</v>
+      </c>
+      <c r="F58" t="str">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1">
+        <v>45081.999398148146</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <v>30593.49939814815</v>
+      <c r="A59">
+        <v>21364</v>
       </c>
       <c r="B59" t="str">
-        <v>Sue Skog</v>
+        <v>Messer Canada Inc.</v>
+      </c>
+      <c r="C59" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v>900.29</v>
+      </c>
+      <c r="F59" t="str">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>45081.999398148146</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>35530.499398148146</v>
+      <c r="A60">
+        <v>21353</v>
       </c>
       <c r="B60" t="str">
-        <v>Tanner Hadley</v>
+        <v>M&amp;D/Varsteel/Christianson</v>
+      </c>
+      <c r="C60" t="str">
+        <v>rolling stock</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v>48944.6000000000013</v>
+      </c>
+      <c r="F60" t="str">
+        <v>2180</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>45078.999398148146</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Garrett Axani</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>44711.499398148146</v>
+      <c r="A61">
+        <v>21347</v>
       </c>
       <c r="B61" t="str">
-        <v>TEST Hasan TEST Hasan</v>
+        <v>Vigor Heating and Plumbing</v>
+      </c>
+      <c r="C61" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v>781.5</v>
+      </c>
+      <c r="F61" t="str">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>45077.999398148146</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>27739.49939814815</v>
+      <c r="A62">
+        <v>21355</v>
       </c>
       <c r="B62" t="str">
-        <v>Trevor Collicutt</v>
+        <v>Alberta Welding Supplies</v>
+      </c>
+      <c r="C62" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v>5355.59</v>
+      </c>
+      <c r="F62" t="str">
+        <v>51</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>45077.999398148146</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>25397.49939814815</v>
+      <c r="A63">
+        <v>21346</v>
       </c>
       <c r="B63" t="str">
-        <v>Wade Thompson</v>
+        <v>Alberta Welding Supplies</v>
+      </c>
+      <c r="C63" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <v>147</v>
+      </c>
+      <c r="F63" t="str">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>45077.999398148146</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>24458.49939814815</v>
+      <c r="A64">
+        <v>21345</v>
       </c>
       <c r="B64" t="str">
-        <v>Warren Dmyterko</v>
+        <v>Alberta Welding Supplies</v>
+      </c>
+      <c r="C64" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <v>1660.5</v>
+      </c>
+      <c r="F64" t="str">
+        <v>17</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>45077.999398148146</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>34636.499398148146</v>
+      <c r="A65">
+        <v>21344</v>
       </c>
       <c r="B65" t="str">
-        <v>Wyatt Eastman</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>37844.499398148146</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Xander Tran</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>31791.49939814815</v>
-      </c>
-      <c r="B67" t="str">
-        <v>Zach Billington</v>
+        <v>Alberta Welding Supplies</v>
+      </c>
+      <c r="C65" t="str">
+        <v xml:space="preserve">Manufacturing </v>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <v>217.45000000000003</v>
+      </c>
+      <c r="F65" t="str">
+        <v>51</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>45077.999398148146</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Dustin Meunier</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I65"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -42,8 +42,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,94 +376,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>birthday</v>
+      </c>
+      <c r="B1" t="str">
+        <v>start_date</v>
+      </c>
+      <c r="C1" t="str">
         <v>preferred_name</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Austin Ward</v>
+      <c r="A2" s="1">
+        <v>35211.29106481482</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45271.29106481482</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aahed Ammar</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Brent LHirondelle</v>
+      <c r="A3" s="1">
+        <v>44271.29106481482</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44271.29106481482</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Accurate Networks</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>Elvis Prakash</v>
+      <c r="A4" s="1">
+        <v>36599.29106481482</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44277.29106481482</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Alex Kolomoyets</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>Hunter Harringa</v>
+      <c r="A5" s="1">
+        <v>33284.29106481482</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41365.29106481482</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Andre Proulx</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>Jeff Tataryn</v>
+      <c r="A6" s="1">
+        <v>31832.291064814814</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41590.29106481482</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Andrew Marshall</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>Kadi Stanley</v>
+      <c r="A7" s="1">
+        <v>36259.29106481482</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45342.29106481482</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Andy Ponce</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>Kody Eastman</v>
+      <c r="A8" s="1">
+        <v>35735.29106481482</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45447.29106481482</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Austin Alexcee</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>Lindon Sorensen</v>
+      <c r="A9" s="1">
+        <v>21453.291064814814</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45231.29106481482</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Barb Axani</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v xml:space="preserve">Michael  Macalling </v>
+      <c r="A10" s="1">
+        <v>31781.291064814814</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40064.29106481482</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Benjamin Luu</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>Mohak Mehra</v>
+      <c r="A11" s="1">
+        <v>30197.291064814814</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45111.29106481482</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Brandon Bray</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>Nathan Stevenson</v>
+      <c r="A12" s="1">
+        <v>35920.29106481482</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45231.29106481482</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Calum Blackburn</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>Phil Esteves</v>
+      <c r="A13" s="1">
+        <v>28144.291064814814</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44746.29106481482</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Christopher Ayling</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>Roys Jebson Tumalon</v>
+      <c r="A14" s="1">
+        <v>38285.29106481482</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45168.29106481482</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Connor Logan</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>Trai Upshaw</v>
+      <c r="A15" s="1">
+        <v>25391.291064814814</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45446.29106481482</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Craig Hauger</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>Wade Thompson</v>
+      <c r="A16" s="1">
+        <v>34869.29106481482</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44452.29106481482</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Daniel Richardson</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>35454.29106481482</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44054.29106481482</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Dave Doerksen</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>36033.29106481482</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43018.29106481482</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Dean Webb</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>25350.291064814814</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45061.29106481482</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Don Petruka</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>30765.291064814814</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45154.29106481482</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Erin Pritchard</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>29594.291064814814</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40023.29106481482</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Ernesto Esguerra</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>38105.29106481482</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45443.29106481482</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Evan Beaubien</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21528.291064814814</v>
+      </c>
+      <c r="B23" s="1">
+        <v>33807.29106481482</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Gene Axani</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>31427.291064814814</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43558.29106481482</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Grant Turner</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>34897.29106481482</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44959.29106481482</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Haiden Clorey</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>34758.29106481482</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44523.29106481482</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Hasan AlGhanim</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>25336.291064814814</v>
+      </c>
+      <c r="B27" s="1">
+        <v>38657.29106481482</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Ian Klaver</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>30140.291064814814</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40323.29106481482</v>
+      </c>
+      <c r="C28" t="str">
+        <v>James Skog</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>35903.29106481482</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42976.29106481482</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Jason Mirasty</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>34348.29106481482</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42787.29106481482</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Jeff Fisher</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>33039.29106481482</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44767.29106481482</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Jeffrey Dawana</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31470.291064814814</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42989.29106481482</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Jeremy Mangaard</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>37961.29106481482</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45274.29106481482</v>
+      </c>
+      <c r="C33" t="str">
+        <v>John Altamirano McQueen</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>29281.291064814814</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42968.29106481482</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Jonathan Rice</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>33213.29106481482</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44952.29106481482</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Josh Raugust</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>36278.29106481482</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45436.29106481482</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Kieran Hodgson</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>33146.29106481482</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42971.29106481482</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Kris Beaulieu</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>34338.29106481482</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45138.29106481482</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Kyle Krossa</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>32776.29106481482</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43633.29106481482</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Laili Van den Heuvel</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>23285.291064814814</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44466.29106481482</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Lawrence Dehod</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>32749.291064814814</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44776.29106481482</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Matthew Letourneau</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>27775.291064814814</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43983.29106481482</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Michael Liu</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>35170.29106481482</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45040.29106481482</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Micheal Martinez</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>32236.291064814814</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43556.29106481482</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Mike Banack</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>32402.291064814814</v>
+      </c>
+      <c r="B45" s="1">
+        <v>41102.29106481482</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Morgan Resler</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>36065.29106481482</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45334.29106481482</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Nav Dhaliwal</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>37436.29106481482</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45299.29106481482</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Noah Anderson</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>30694.291064814814</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44788.29106481482</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Paul Gerhardt</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>35075.29106481482</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44775.29106481482</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Rebecca Partridge</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>38968.29106481482</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45135.29106481482</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Ryan Johnson</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45300.29106481482</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45294.29106481482</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Ryan Zoe</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>29723.291064814814</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44936.29106481482</v>
+      </c>
+      <c r="C52" t="str">
+        <v xml:space="preserve">Sean  O Sullivan </v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>30593.291064814814</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44760.29106481482</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Sue Skog</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>35530.29106481482</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44725.29106481482</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Tanner Hadley</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>44711.29106481482</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45398.29106481482</v>
+      </c>
+      <c r="C55" t="str">
+        <v>TEST Hasan TEST Hasan</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>37690.29106481482</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45294.29106481482</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Tomas Walter</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>37390.29106481482</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45429.29106481482</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Trey Newby</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>36391.29106481482</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45419.29106481482</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Tyler Frost</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>34018.29106481482</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45166.29106481482</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Tyler Herd</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>32980.29106481482</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45246.29106481482</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Tyson Carlson</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>24458.291064814814</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44342.29106481482</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Warren Dmyterko</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>37844.29106481482</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45355.29106481482</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Xander Tran</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C62"/>
   </ignoredErrors>
 </worksheet>
 </file>